--- a/9.9/left.xlsx
+++ b/9.9/left.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>

--- a/9.9/left.xlsx
+++ b/9.9/left.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="111">
   <si>
     <t>Before</t>
   </si>
@@ -69,9 +68,6 @@
     <t>Lesson</t>
   </si>
   <si>
-    <t>https://www.youtube.com/embed/SiGPIaAbrkc</t>
-  </si>
-  <si>
     <t>Extra Notes:</t>
   </si>
   <si>
@@ -213,9 +209,6 @@
     <t>Lesson 4.8: Rotation Exercise</t>
   </si>
   <si>
-    <t>Lesson 4.9: Extra Notes</t>
-  </si>
-  <si>
     <t>Lesson 6: Loci (Optional)</t>
   </si>
   <si>
@@ -237,24 +230,12 @@
     <t>Lesson 7.7: Angles in a Triangle</t>
   </si>
   <si>
-    <t>Lesson 5.1: Scales</t>
-  </si>
-  <si>
-    <t>Lesson 5.3: Bearings</t>
-  </si>
-  <si>
-    <t>Lesson 5.5: Grid References</t>
-  </si>
-  <si>
     <t>Lesson 6.1: Distance from One Point</t>
   </si>
   <si>
     <t>Lesson 6.3: Distance from Line</t>
   </si>
   <si>
-    <t>Lesson 6.5: Applications</t>
-  </si>
-  <si>
     <t>Lesson 8: Mixed Review</t>
   </si>
   <si>
@@ -307,6 +288,81 @@
   </si>
   <si>
     <t>solidsnets</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/0x4voybPN4E</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/5E1l7B9ZhGo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/JLxo4ng_ILI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/sBm_p-DGiO8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/LtMHLrNiXMY</t>
+  </si>
+  <si>
+    <t>mapdistance,mapdistance,mapdistance,mapdistance,mapdistance,</t>
+  </si>
+  <si>
+    <t>Lesson 5.1: Map Distances</t>
+  </si>
+  <si>
+    <t>Lesson 5.2: Map Distances Exercise</t>
+  </si>
+  <si>
+    <t>mapbearing,mapbearing,mapbearing,mapbearing,mapbearing,</t>
+  </si>
+  <si>
+    <t>Lesson 5.3: Compass Directions</t>
+  </si>
+  <si>
+    <t>Lesson 5.4: Compass Directions Exercise</t>
+  </si>
+  <si>
+    <t>Lesson 5.5: Bearings</t>
+  </si>
+  <si>
+    <t>Lesson 5.6: Bearings Exercise</t>
+  </si>
+  <si>
+    <t>Lesson 5.7: Grid References</t>
+  </si>
+  <si>
+    <t>Lesson 5.8: Grid References Exercise</t>
+  </si>
+  <si>
+    <t>mapcompass,mapcompass,mapcompass,mapcompass,mapcompass,</t>
+  </si>
+  <si>
+    <t>mapgridreference,mapgridreference,mapgridreference,mapgridreference,mapgridreference,</t>
+  </si>
+  <si>
+    <t>locicircle,locicircle,locicircle,locicircle,locicircle,</t>
+  </si>
+  <si>
+    <t>Lesson 6.2: Distance from One Point Exercise</t>
+  </si>
+  <si>
+    <t>Lesson 6.5: Extra Notes</t>
+  </si>
+  <si>
+    <t>Lesson 6.4: Distance from Line Exercise</t>
+  </si>
+  <si>
+    <t>lociline,lociline,lociline,lociline,lociline,</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=https://students.mathsnz.com/9.9/pdfs/3.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=https://students.mathsnz.com/9.9/pdfs/4.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/viewer?url=https://students.mathsnz.com/9.9/pdfs/5.pdf&amp;embedded=true</t>
   </si>
 </sst>
 </file>
@@ -640,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,7 +747,7 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="str">
         <f>IF(I2&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -710,8 +766,8 @@
         <v>1</v>
       </c>
       <c r="H2" t="str">
-        <f>"9.10_"&amp;G2</f>
-        <v>9.10_1</v>
+        <f>"9.9_"&amp;G2</f>
+        <v>9.9_1</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -720,10 +776,10 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A17" si="2">IF(I3&lt;&gt;"Lesson","&lt;a href='"&amp;H3&amp;".html' class="&amp;I3&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
-        <v>&lt;a href='9.10_1_1.html' class=Video&gt;</v>
+        <v>&lt;a href='9.9_1_1.html' class=Video&gt;</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C17" si="3">IF(I3&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -742,23 +798,23 @@
         <v>1_1</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H4" si="4">"9.10_"&amp;G3</f>
-        <v>9.10_1_1</v>
+        <f t="shared" ref="H3:H64" si="4">"9.9_"&amp;G3</f>
+        <v>9.9_1_1</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='9.10_1_2.html' class=Questions&gt;</v>
+        <v>&lt;a href='9.9_1_2.html' class=Questions&gt;</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="3"/>
@@ -778,7 +834,7 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" si="4"/>
-        <v>9.10_1_2</v>
+        <v>9.9_1_2</v>
       </c>
       <c r="I4" t="s">
         <v>10</v>
@@ -788,49 +844,51 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#lesson1p2,shapesregular,,,,,</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='9.10_1_3.html' class=Video&gt;</v>
+        <v>&lt;a href='9.9_1_3.html' class=Video&gt;</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="3"/>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" ref="E5:E60" si="5">LEFT(B5,FIND(":",B5)-1)</f>
+        <f t="shared" ref="E5:E63" si="5">LEFT(B5,FIND(":",B5)-1)</f>
         <v>Lesson 1.3</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" ref="F5:F60" si="6">RIGHT(E5,LEN(E5)-FIND(" ",E5))</f>
+        <f t="shared" ref="F5:F63" si="6">RIGHT(E5,LEN(E5)-FIND(" ",E5))</f>
         <v>1.3</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" ref="G5:G60" si="7">SUBSTITUTE(F5,".","_")</f>
+        <f t="shared" ref="G5:G63" si="7">SUBSTITUTE(F5,".","_")</f>
         <v>1_3</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" ref="H5:H60" si="8">"9.10_"&amp;G5</f>
-        <v>9.10_1_3</v>
+        <f t="shared" si="4"/>
+        <v>9.9_1_3</v>
       </c>
       <c r="I5" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='9.10_1_4.html' class=Questions&gt;</v>
+        <v>&lt;a href='9.9_1_4.html' class=Questions&gt;</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="3"/>
@@ -849,8 +907,8 @@
         <v>1_4</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="8"/>
-        <v>9.10_1_4</v>
+        <f t="shared" si="4"/>
+        <v>9.9_1_4</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -860,16 +918,16 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#lesson1p4,shapestriangles,,,,,</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='9.10_1_5.html' class=Video&gt;</v>
+        <v>&lt;a href='9.9_1_5.html' class=Video&gt;</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="3"/>
@@ -888,21 +946,23 @@
         <v>1_5</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="8"/>
-        <v>9.10_1_5</v>
+        <f t="shared" si="4"/>
+        <v>9.9_1_5</v>
       </c>
       <c r="I7" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='9.10_1_6.html' class=Questions&gt;</v>
+        <v>&lt;a href='9.9_1_6.html' class=Questions&gt;</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="3"/>
@@ -921,8 +981,8 @@
         <v>1_6</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="8"/>
-        <v>9.10_1_6</v>
+        <f t="shared" si="4"/>
+        <v>9.9_1_6</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -932,16 +992,16 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#lesson1p6,shapesquad,,,,,</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='9.10_1_7.html' class=Document&gt;</v>
+        <v>&lt;a href='9.9_1_7.html' class=Document&gt;</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="3"/>
@@ -960,14 +1020,14 @@
         <v>1_7</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="8"/>
-        <v>9.10_1_7</v>
+        <f t="shared" si="4"/>
+        <v>9.9_1_7</v>
       </c>
       <c r="I9" t="s">
         <v>8</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -976,18 +1036,18 @@
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="3"/>
         <v>&lt;/span&gt;</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" ref="E10:E16" si="9">LEFT(B10,FIND(":",B10)-1)</f>
+        <f t="shared" ref="E10:E16" si="8">LEFT(B10,FIND(":",B10)-1)</f>
         <v>Lesson 2</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" ref="F10:F16" si="10">RIGHT(E10,LEN(E10)-FIND(" ",E10))</f>
+        <f t="shared" ref="F10:F16" si="9">RIGHT(E10,LEN(E10)-FIND(" ",E10))</f>
         <v>2</v>
       </c>
       <c r="G10" t="str">
@@ -995,8 +1055,8 @@
         <v>2</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" ref="H10:H16" si="11">"9.10_"&amp;G10</f>
-        <v>9.10_2</v>
+        <f t="shared" si="4"/>
+        <v>9.9_2</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>11</v>
@@ -1006,21 +1066,21 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='9.10_2_1.html' class=Video&gt;</v>
+        <v>&lt;a href='9.9_2_1.html' class=Video&gt;</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E11" t="str">
+        <f t="shared" si="8"/>
+        <v>Lesson 2.1</v>
+      </c>
+      <c r="F11" t="str">
         <f t="shared" si="9"/>
-        <v>Lesson 2.1</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="10"/>
         <v>2.1</v>
       </c>
       <c r="G11" t="str">
@@ -1028,32 +1088,34 @@
         <v>2_1</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="11"/>
-        <v>9.10_2_1</v>
+        <f t="shared" si="4"/>
+        <v>9.9_2_1</v>
       </c>
       <c r="I11" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='9.10_2_2.html' class=Questions&gt;</v>
+        <v>&lt;a href='9.9_2_2.html' class=Questions&gt;</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="3"/>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E12" t="str">
+        <f t="shared" si="8"/>
+        <v>Lesson 2.2</v>
+      </c>
+      <c r="F12" t="str">
         <f t="shared" si="9"/>
-        <v>Lesson 2.2</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="10"/>
         <v>2.2</v>
       </c>
       <c r="G12" t="str">
@@ -1061,8 +1123,8 @@
         <v>2_2</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="11"/>
-        <v>9.10_2_2</v>
+        <f t="shared" si="4"/>
+        <v>9.9_2_2</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
@@ -1072,27 +1134,27 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#lesson2p2,solids,,,,,</v>
       </c>
       <c r="K12" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='9.10_2_3.html' class=Video&gt;</v>
+        <v>&lt;a href='9.9_2_3.html' class=Video&gt;</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="3"/>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E13" t="str">
+        <f t="shared" si="8"/>
+        <v>Lesson 2.3</v>
+      </c>
+      <c r="F13" t="str">
         <f t="shared" si="9"/>
-        <v>Lesson 2.3</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="10"/>
         <v>2.3</v>
       </c>
       <c r="G13" t="str">
@@ -1100,32 +1162,34 @@
         <v>2_3</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="11"/>
-        <v>9.10_2_3</v>
+        <f t="shared" si="4"/>
+        <v>9.9_2_3</v>
       </c>
       <c r="I13" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='9.10_2_4.html' class=Questions&gt;</v>
+        <v>&lt;a href='9.9_2_4.html' class=Questions&gt;</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="3"/>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E14" t="str">
+        <f t="shared" si="8"/>
+        <v>Lesson 2.4</v>
+      </c>
+      <c r="F14" t="str">
         <f t="shared" si="9"/>
-        <v>Lesson 2.4</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="10"/>
         <v>2.4</v>
       </c>
       <c r="G14" t="str">
@@ -1133,8 +1197,8 @@
         <v>2_4</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="11"/>
-        <v>9.10_2_4</v>
+        <f t="shared" si="4"/>
+        <v>9.9_2_4</v>
       </c>
       <c r="I14" t="s">
         <v>10</v>
@@ -1144,27 +1208,27 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#lesson2p4,solidsnets,,,,,</v>
       </c>
       <c r="K14" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='9.10_2_5.html' class=Video&gt;</v>
+        <v>&lt;a href='9.9_2_5.html' class=Video&gt;</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="3"/>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E15" t="str">
+        <f t="shared" si="8"/>
+        <v>Lesson 2.5</v>
+      </c>
+      <c r="F15" t="str">
         <f t="shared" si="9"/>
-        <v>Lesson 2.5</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="G15" t="str">
@@ -1172,8 +1236,8 @@
         <v>2_5</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="11"/>
-        <v>9.10_2_5</v>
+        <f t="shared" si="4"/>
+        <v>9.9_2_5</v>
       </c>
       <c r="I15" t="s">
         <v>9</v>
@@ -1183,21 +1247,21 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='9.10_2_6.html' class=Questions&gt;</v>
+        <v>&lt;a href='9.9_2_6.html' class=Questions&gt;</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="3"/>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E16" t="str">
+        <f t="shared" si="8"/>
+        <v>Lesson 2.6</v>
+      </c>
+      <c r="F16" t="str">
         <f t="shared" si="9"/>
-        <v>Lesson 2.6</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="10"/>
         <v>2.6</v>
       </c>
       <c r="G16" t="str">
@@ -1205,8 +1269,8 @@
         <v>2_6</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="11"/>
-        <v>9.10_2_6</v>
+        <f t="shared" si="4"/>
+        <v>9.9_2_6</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -1216,27 +1280,27 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#lesson2p6,solidsproperties,,,,,</v>
       </c>
       <c r="K16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;a href='9.10_2_7.html' class=Document&gt;</v>
+        <v>&lt;a href='9.9_2_7.html' class=Document&gt;</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="3"/>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" ref="E17:E19" si="12">LEFT(B17,FIND(":",B17)-1)</f>
+        <f t="shared" ref="E17:E19" si="10">LEFT(B17,FIND(":",B17)-1)</f>
         <v>Lesson 2.7</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" ref="F17:F19" si="13">RIGHT(E17,LEN(E17)-FIND(" ",E17))</f>
+        <f t="shared" ref="F17:F19" si="11">RIGHT(E17,LEN(E17)-FIND(" ",E17))</f>
         <v>2.7</v>
       </c>
       <c r="G17" t="str">
@@ -1244,43 +1308,43 @@
         <v>2_7</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" ref="H17:H19" si="14">"9.10_"&amp;G17</f>
-        <v>9.10_2_7</v>
+        <f t="shared" si="4"/>
+        <v>9.9_2_7</v>
       </c>
       <c r="I17" t="s">
         <v>8</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <f t="shared" ref="A18:A24" si="15">IF(I18&lt;&gt;"Lesson","&lt;a href='"&amp;H18&amp;".html' class="&amp;I18&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <f t="shared" ref="A18:A24" si="12">IF(I18&lt;&gt;"Lesson","&lt;a href='"&amp;H18&amp;".html' class="&amp;I18&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" ref="C18:C24" si="16">IF(I18&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <f t="shared" ref="C18:C24" si="13">IF(I18&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
         <v>&lt;/span&gt;</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>Lesson 3</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" ref="G18:G19" si="17">SUBSTITUTE(F18,".","_")</f>
+        <f t="shared" ref="G18:G19" si="14">SUBSTITUTE(F18,".","_")</f>
         <v>3</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="14"/>
-        <v>9.10_3</v>
+        <f t="shared" si="4"/>
+        <v>9.9_3</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>11</v>
@@ -1289,31 +1353,31 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;a href='9.10_3_1.html' class=Video&gt;</v>
+        <f t="shared" si="12"/>
+        <v>&lt;a href='9.9_3_1.html' class=Video&gt;</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>Lesson 3.1</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>3.1</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>3_1</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="14"/>
-        <v>9.10_3_1</v>
+        <f t="shared" si="4"/>
+        <v>9.9_3_1</v>
       </c>
       <c r="I19" t="s">
         <v>9</v>
@@ -1322,31 +1386,31 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;a href='9.10_3_2.html' class=Questions&gt;</v>
+        <f t="shared" si="12"/>
+        <v>&lt;a href='9.9_3_2.html' class=Questions&gt;</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" ref="E20:E26" si="18">LEFT(B20,FIND(":",B20)-1)</f>
+        <f t="shared" ref="E20:E26" si="15">LEFT(B20,FIND(":",B20)-1)</f>
         <v>Lesson 3.2</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" ref="F20:F26" si="19">RIGHT(E20,LEN(E20)-FIND(" ",E20))</f>
+        <f t="shared" ref="F20:F26" si="16">RIGHT(E20,LEN(E20)-FIND(" ",E20))</f>
         <v>3.2</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" ref="G20:G26" si="20">SUBSTITUTE(F20,".","_")</f>
+        <f t="shared" ref="G20:G26" si="17">SUBSTITUTE(F20,".","_")</f>
         <v>3_2</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" ref="H20:H26" si="21">"9.10_"&amp;G20</f>
-        <v>9.10_3_2</v>
+        <f t="shared" si="4"/>
+        <v>9.9_3_2</v>
       </c>
       <c r="I20" t="s">
         <v>10</v>
@@ -1356,36 +1420,36 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#lesson3p2,isodraw3,isodraw4,isodraw4,isodraw6,isodraw6,isodraw6,,,,,,</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;a href='9.9_3_3.html' class=Video&gt;</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E21" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;a href='9.10_3_3.html' class=Video&gt;</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="str">
+        <v>Lesson 3.3</v>
+      </c>
+      <c r="F21" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="18"/>
-        <v>Lesson 3.3</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="19"/>
         <v>3.3</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>3_3</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="21"/>
-        <v>9.10_3_3</v>
+        <f t="shared" si="4"/>
+        <v>9.9_3_3</v>
       </c>
       <c r="I21" t="s">
         <v>9</v>
@@ -1394,31 +1458,31 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;a href='9.9_3_4.html' class=Questions&gt;</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E22" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;a href='9.10_3_4.html' class=Questions&gt;</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" t="str">
+        <v>Lesson 3.4</v>
+      </c>
+      <c r="F22" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="18"/>
-        <v>Lesson 3.4</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="19"/>
         <v>3.4</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>3_4</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="21"/>
-        <v>9.10_3_4</v>
+        <f t="shared" si="4"/>
+        <v>9.9_3_4</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
@@ -1428,36 +1492,36 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#lesson3p4,sidetopview3,sidetopview4,sidetopview4,sidetopview6,sidetopview6,sidetopview6,,,,,,</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;a href='9.9_3_5.html' class=Video&gt;</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E23" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;a href='9.10_3_5.html' class=Video&gt;</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" t="str">
+        <v>Lesson 3.5</v>
+      </c>
+      <c r="F23" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="18"/>
-        <v>Lesson 3.5</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="19"/>
         <v>3.5</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>3_5</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="21"/>
-        <v>9.10_3_5</v>
+        <f t="shared" si="4"/>
+        <v>9.9_3_5</v>
       </c>
       <c r="I23" t="s">
         <v>9</v>
@@ -1466,31 +1530,31 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;a href='9.9_3_6.html' class=Questions&gt;</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="13"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E24" t="str">
         <f t="shared" si="15"/>
-        <v>&lt;a href='9.10_3_6.html' class=Questions&gt;</v>
-      </c>
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" t="str">
+        <v>Lesson 3.6</v>
+      </c>
+      <c r="F24" t="str">
         <f t="shared" si="16"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="18"/>
-        <v>Lesson 3.6</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="19"/>
         <v>3.6</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>3_6</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="21"/>
-        <v>9.10_3_6</v>
+        <f t="shared" si="4"/>
+        <v>9.9_3_6</v>
       </c>
       <c r="I24" t="s">
         <v>10</v>
@@ -1500,36 +1564,36 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#lesson3p6,isodrawfg3,isodrawfg4,isodrawfg4,isodrawfg6,isodrawfg6,isodrawfg6,,,,,,</v>
       </c>
       <c r="K24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
-        <f t="shared" ref="A25:A38" si="22">IF(I25&lt;&gt;"Lesson","&lt;a href='"&amp;H25&amp;".html' class="&amp;I25&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <f t="shared" ref="A25:A42" si="18">IF(I25&lt;&gt;"Lesson","&lt;a href='"&amp;H25&amp;".html' class="&amp;I25&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" ref="C25:C34" si="23">IF(I25&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <f t="shared" ref="C25:C31" si="19">IF(I25&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
         <v>&lt;/span&gt;</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>Lesson 4</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="21"/>
-        <v>9.10_4</v>
+        <f t="shared" si="4"/>
+        <v>9.9_4</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>11</v>
@@ -1538,31 +1602,31 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
-        <f t="shared" si="22"/>
-        <v>&lt;a href='9.10_4_1.html' class=Video&gt;</v>
+        <f t="shared" si="18"/>
+        <v>&lt;a href='9.9_4_1.html' class=Video&gt;</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>Lesson 4.1</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>4.1</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>4_1</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="21"/>
-        <v>9.10_4_1</v>
+        <f t="shared" si="4"/>
+        <v>9.9_4_1</v>
       </c>
       <c r="I26" t="s">
         <v>9</v>
@@ -1571,31 +1635,31 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
-        <f t="shared" si="22"/>
-        <v>&lt;a href='9.10_4_2.html' class=Questions&gt;</v>
+        <f t="shared" si="18"/>
+        <v>&lt;a href='9.9_4_2.html' class=Questions&gt;</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" ref="E27:E38" si="24">LEFT(B27,FIND(":",B27)-1)</f>
+        <f t="shared" ref="E27:E41" si="20">LEFT(B27,FIND(":",B27)-1)</f>
         <v>Lesson 4.2</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" ref="F27:F38" si="25">RIGHT(E27,LEN(E27)-FIND(" ",E27))</f>
+        <f t="shared" ref="F27:F41" si="21">RIGHT(E27,LEN(E27)-FIND(" ",E27))</f>
         <v>4.2</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" ref="G27:G38" si="26">SUBSTITUTE(F27,".","_")</f>
+        <f t="shared" ref="G27:G41" si="22">SUBSTITUTE(F27,".","_")</f>
         <v>4_2</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" ref="H27:H38" si="27">"9.10_"&amp;G27</f>
-        <v>9.10_4_2</v>
+        <f t="shared" si="4"/>
+        <v>9.9_4_2</v>
       </c>
       <c r="I27" t="s">
         <v>10</v>
@@ -1605,36 +1669,36 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#lesson4p2,transformationreflection,transformationreflection,transformationreflection,transformationreflection2,transformationreflection2,,,,,,</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
+        <f t="shared" si="18"/>
+        <v>&lt;a href='9.9_4_3.html' class=Video&gt;</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="20"/>
+        <v>Lesson 4.3</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="21"/>
+        <v>4.3</v>
+      </c>
+      <c r="G28" t="str">
         <f t="shared" si="22"/>
-        <v>&lt;a href='9.10_4_3.html' class=Video&gt;</v>
-      </c>
-      <c r="B28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" si="23"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="24"/>
-        <v>Lesson 4.3</v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" si="25"/>
-        <v>4.3</v>
-      </c>
-      <c r="G28" t="str">
-        <f t="shared" si="26"/>
         <v>4_3</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="27"/>
-        <v>9.10_4_3</v>
+        <f t="shared" si="4"/>
+        <v>9.9_4_3</v>
       </c>
       <c r="I28" t="s">
         <v>9</v>
@@ -1643,31 +1707,31 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
+        <f t="shared" si="18"/>
+        <v>&lt;a href='9.9_4_4.html' class=Questions&gt;</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="20"/>
+        <v>Lesson 4.4</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="21"/>
+        <v>4.4</v>
+      </c>
+      <c r="G29" t="str">
         <f t="shared" si="22"/>
-        <v>&lt;a href='9.10_4_4.html' class=Questions&gt;</v>
-      </c>
-      <c r="B29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" si="23"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="24"/>
-        <v>Lesson 4.4</v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="25"/>
-        <v>4.4</v>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" si="26"/>
         <v>4_4</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="27"/>
-        <v>9.10_4_4</v>
+        <f t="shared" si="4"/>
+        <v>9.9_4_4</v>
       </c>
       <c r="I29" t="s">
         <v>10</v>
@@ -1677,36 +1741,36 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#lesson4p4,transformationtranslation,transformationtranslation,transformationtranslation,transformationtranslation,transformationtranslation,,,,,,</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
+        <f t="shared" si="18"/>
+        <v>&lt;a href='9.9_4_5.html' class=Video&gt;</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="20"/>
+        <v>Lesson 4.5</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="21"/>
+        <v>4.5</v>
+      </c>
+      <c r="G30" t="str">
         <f t="shared" si="22"/>
-        <v>&lt;a href='9.10_4_5.html' class=Video&gt;</v>
-      </c>
-      <c r="B30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" si="23"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="24"/>
-        <v>Lesson 4.5</v>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" si="25"/>
-        <v>4.5</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="26"/>
         <v>4_5</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="27"/>
-        <v>9.10_4_5</v>
+        <f t="shared" si="4"/>
+        <v>9.9_4_5</v>
       </c>
       <c r="I30" t="s">
         <v>9</v>
@@ -1715,31 +1779,31 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
+        <f t="shared" si="18"/>
+        <v>&lt;a href='9.9_4_6.html' class=Questions&gt;</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="19"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="20"/>
+        <v>Lesson 4.6</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="21"/>
+        <v>4.6</v>
+      </c>
+      <c r="G31" t="str">
         <f t="shared" si="22"/>
-        <v>&lt;a href='9.10_4_6.html' class=Questions&gt;</v>
-      </c>
-      <c r="B31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" si="23"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="24"/>
-        <v>Lesson 4.6</v>
-      </c>
-      <c r="F31" t="str">
-        <f t="shared" si="25"/>
-        <v>4.6</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="26"/>
         <v>4_6</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="27"/>
-        <v>9.10_4_6</v>
+        <f t="shared" si="4"/>
+        <v>9.9_4_6</v>
       </c>
       <c r="I31" t="s">
         <v>10</v>
@@ -1749,36 +1813,36 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#lesson4p6,transformationenlargement,transformationenlargement,transformationenlargement,transformationenlargement,transformationenlargement,,,,,,</v>
       </c>
       <c r="K31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
-        <f t="shared" ref="A32:A33" si="28">IF(I32&lt;&gt;"Lesson","&lt;a href='"&amp;H32&amp;".html' class="&amp;I32&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
-        <v>&lt;a href='9.10_4_7.html' class=Video&gt;</v>
+        <f t="shared" ref="A32:A33" si="23">IF(I32&lt;&gt;"Lesson","&lt;a href='"&amp;H32&amp;".html' class="&amp;I32&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <v>&lt;a href='9.9_4_7.html' class=Video&gt;</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" ref="C32:C33" si="29">IF(I32&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <f t="shared" ref="C32:C33" si="24">IF(I32&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" ref="E32:E33" si="30">LEFT(B32,FIND(":",B32)-1)</f>
+        <f t="shared" ref="E32:E33" si="25">LEFT(B32,FIND(":",B32)-1)</f>
         <v>Lesson 4.7</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" ref="F32:F33" si="31">RIGHT(E32,LEN(E32)-FIND(" ",E32))</f>
+        <f t="shared" ref="F32:F33" si="26">RIGHT(E32,LEN(E32)-FIND(" ",E32))</f>
         <v>4.7</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" ref="G32:G33" si="32">SUBSTITUTE(F32,".","_")</f>
+        <f t="shared" ref="G32:G33" si="27">SUBSTITUTE(F32,".","_")</f>
         <v>4_7</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" ref="H32:H33" si="33">"9.10_"&amp;G32</f>
-        <v>9.10_4_7</v>
+        <f t="shared" si="4"/>
+        <v>9.9_4_7</v>
       </c>
       <c r="I32" t="s">
         <v>9</v>
@@ -1787,31 +1851,31 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
-        <f t="shared" si="28"/>
-        <v>&lt;a href='9.10_4_8.html' class=Questions&gt;</v>
+        <f t="shared" si="23"/>
+        <v>&lt;a href='9.9_4_8.html' class=Questions&gt;</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>Lesson 4.8</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>4.8</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="27"/>
         <v>4_8</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="33"/>
-        <v>9.10_4_8</v>
+        <f t="shared" si="4"/>
+        <v>9.9_4_8</v>
       </c>
       <c r="I33" t="s">
         <v>10</v>
@@ -1821,135 +1885,141 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#lesson4p8,transformationrotation,transformationrotation,transformationrotation,transformationrotation2,transformationrotation2,,,,,,</v>
       </c>
       <c r="K33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
+        <f t="shared" ref="A34" si="28">IF(I34&lt;&gt;"Lesson","&lt;a href='"&amp;H34&amp;".html' class="&amp;I34&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" ref="C34:C59" si="29">IF(I34&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <v>&lt;/span&gt;</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="20"/>
+        <v>Lesson 5</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="G34" t="str">
         <f t="shared" si="22"/>
-        <v>&lt;a href='9.10_4_9.html' class=Document&gt;</v>
-      </c>
-      <c r="B34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" t="str">
-        <f t="shared" si="23"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="24"/>
-        <v>Lesson 4.9</v>
-      </c>
-      <c r="F34" t="str">
-        <f t="shared" si="25"/>
-        <v>4.9</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="26"/>
-        <v>4_9</v>
+        <v>5</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="27"/>
-        <v>9.10_4_9</v>
-      </c>
-      <c r="I34" t="s">
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>9.9_5</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
-        <f t="shared" ref="A35" si="34">IF(I35&lt;&gt;"Lesson","&lt;a href='"&amp;H35&amp;".html' class="&amp;I35&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
-        <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
+        <f t="shared" si="18"/>
+        <v>&lt;a href='9.9_5_1.html' class=Video&gt;</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" ref="C35:C55" si="35">IF(I35&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
-        <v>&lt;/span&gt;</v>
+        <f t="shared" si="29"/>
+        <v>&lt;/a&gt;</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="24"/>
-        <v>Lesson 5</v>
+        <f t="shared" si="20"/>
+        <v>Lesson 5.1</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="25"/>
-        <v>5</v>
+        <f t="shared" si="21"/>
+        <v>5.1</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="26"/>
-        <v>5</v>
+        <f t="shared" si="22"/>
+        <v>5_1</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="27"/>
-        <v>9.10_5</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>9.9_5_1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>9</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
+        <f t="shared" si="18"/>
+        <v>&lt;a href='9.9_5_2.html' class=Questions&gt;</v>
+      </c>
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="20"/>
+        <v>Lesson 5.2</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="21"/>
+        <v>5.2</v>
+      </c>
+      <c r="G36" t="str">
         <f t="shared" si="22"/>
-        <v>&lt;a href='9.10_5_1.html' class=Video&gt;</v>
-      </c>
-      <c r="B36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" t="str">
-        <f t="shared" si="35"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E36" t="str">
-        <f t="shared" si="24"/>
-        <v>Lesson 5.1</v>
-      </c>
-      <c r="F36" t="str">
-        <f t="shared" si="25"/>
-        <v>5.1</v>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" si="26"/>
-        <v>5_1</v>
+        <v>5_2</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="27"/>
-        <v>9.10_5_1</v>
+        <f t="shared" si="4"/>
+        <v>9.9_5_2</v>
       </c>
       <c r="I36" t="s">
-        <v>9</v>
-      </c>
-      <c r="J36" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="J36" s="2" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#lesson"&amp;SUBSTITUTE(F36,".","p")&amp;","&amp;K36&amp;","&amp;L36&amp;","&amp;M36&amp;","&amp;N36&amp;","&amp;O36&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#lesson5p2,mapdistance,mapdistance,mapdistance,mapdistance,mapdistance,,,,,,</v>
+      </c>
+      <c r="K36" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
+        <f t="shared" si="18"/>
+        <v>&lt;a href='9.9_5_3.html' class=Video&gt;</v>
+      </c>
+      <c r="B37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="20"/>
+        <v>Lesson 5.3</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="21"/>
+        <v>5.3</v>
+      </c>
+      <c r="G37" t="str">
         <f t="shared" si="22"/>
-        <v>&lt;a href='9.10_5_3.html' class=Video&gt;</v>
-      </c>
-      <c r="B37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" t="str">
-        <f t="shared" si="35"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="24"/>
-        <v>Lesson 5.3</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="25"/>
-        <v>5.3</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="26"/>
         <v>5_3</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="27"/>
-        <v>9.10_5_3</v>
+        <f t="shared" si="4"/>
+        <v>9.9_5_3</v>
       </c>
       <c r="I37" t="s">
         <v>9</v>
@@ -1958,100 +2028,142 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
+        <f t="shared" si="18"/>
+        <v>&lt;a href='9.9_5_4.html' class=Questions&gt;</v>
+      </c>
+      <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="20"/>
+        <v>Lesson 5.4</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="21"/>
+        <v>5.4</v>
+      </c>
+      <c r="G38" t="str">
         <f t="shared" si="22"/>
-        <v>&lt;a href='9.10_5_5.html' class=Video&gt;</v>
-      </c>
-      <c r="B38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" t="str">
-        <f t="shared" si="35"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" si="24"/>
+        <v>5_4</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="4"/>
+        <v>9.9_5_4</v>
+      </c>
+      <c r="I38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="2" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#lesson"&amp;SUBSTITUTE(F38,".","p")&amp;","&amp;K38&amp;","&amp;L38&amp;","&amp;M38&amp;","&amp;N38&amp;","&amp;O38&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#lesson5p4,mapcompass,mapcompass,mapcompass,mapcompass,mapcompass,,,,,,</v>
+      </c>
+      <c r="K38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="str">
+        <f t="shared" si="18"/>
+        <v>&lt;a href='9.9_5_5.html' class=Video&gt;</v>
+      </c>
+      <c r="B39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="20"/>
         <v>Lesson 5.5</v>
       </c>
-      <c r="F38" t="str">
-        <f t="shared" si="25"/>
+      <c r="F39" t="str">
+        <f t="shared" si="21"/>
         <v>5.5</v>
       </c>
-      <c r="G38" t="str">
-        <f t="shared" si="26"/>
+      <c r="G39" t="str">
+        <f t="shared" si="22"/>
         <v>5_5</v>
       </c>
-      <c r="H38" t="str">
-        <f t="shared" si="27"/>
-        <v>9.10_5_5</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="H39" t="str">
+        <f t="shared" si="4"/>
+        <v>9.9_5_5</v>
+      </c>
+      <c r="I39" t="s">
         <v>9</v>
       </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
-        <f t="shared" ref="A40:A43" si="36">IF(I40&lt;&gt;"Lesson","&lt;a href='"&amp;H40&amp;".html' class="&amp;I40&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
-        <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
+        <f t="shared" si="18"/>
+        <v>&lt;a href='9.9_5_6.html' class=Questions&gt;</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="35"/>
-        <v>&lt;/span&gt;</v>
+        <f t="shared" si="29"/>
+        <v>&lt;/a&gt;</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" ref="E40:E43" si="37">LEFT(B40,FIND(":",B40)-1)</f>
-        <v>Lesson 6</v>
+        <f t="shared" si="20"/>
+        <v>Lesson 5.6</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" ref="F40:F43" si="38">RIGHT(E40,LEN(E40)-FIND(" ",E40))</f>
-        <v>6</v>
+        <f t="shared" si="21"/>
+        <v>5.6</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" ref="G40:G43" si="39">SUBSTITUTE(F40,".","_")</f>
-        <v>6</v>
+        <f t="shared" si="22"/>
+        <v>5_6</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" ref="H40:H43" si="40">"9.10_"&amp;G40</f>
-        <v>9.10_6</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J40" s="2"/>
+        <f t="shared" si="4"/>
+        <v>9.9_5_6</v>
+      </c>
+      <c r="I40" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" s="2" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#lesson"&amp;SUBSTITUTE(F40,".","p")&amp;","&amp;K40&amp;","&amp;L40&amp;","&amp;M40&amp;","&amp;N40&amp;","&amp;O40&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#lesson5p6,mapbearing,mapbearing,mapbearing,mapbearing,mapbearing,,,,,,</v>
+      </c>
+      <c r="K40" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
-        <f t="shared" si="36"/>
-        <v>&lt;a href='9.10_6_1.html' class=Video&gt;</v>
+        <f t="shared" si="18"/>
+        <v>&lt;a href='9.9_5_7.html' class=Video&gt;</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="29"/>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="37"/>
-        <v>Lesson 6.1</v>
+        <f t="shared" si="20"/>
+        <v>Lesson 5.7</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="38"/>
-        <v>6.1</v>
+        <f t="shared" si="21"/>
+        <v>5.7</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="39"/>
-        <v>6_1</v>
+        <f t="shared" si="22"/>
+        <v>5_7</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="40"/>
-        <v>9.10_6_1</v>
+        <f t="shared" si="4"/>
+        <v>9.9_5_7</v>
       </c>
       <c r="I41" t="s">
         <v>9</v>
@@ -2060,133 +2172,175 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
-        <f t="shared" si="36"/>
-        <v>&lt;a href='9.10_6_3.html' class=Video&gt;</v>
+        <f t="shared" si="18"/>
+        <v>&lt;a href='9.9_5_8.html' class=Questions&gt;</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="C42" si="30">IF(I42&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="37"/>
-        <v>Lesson 6.3</v>
+        <f t="shared" ref="E42" si="31">LEFT(B42,FIND(":",B42)-1)</f>
+        <v>Lesson 5.8</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="38"/>
-        <v>6.3</v>
+        <f t="shared" ref="F42" si="32">RIGHT(E42,LEN(E42)-FIND(" ",E42))</f>
+        <v>5.8</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="39"/>
-        <v>6_3</v>
+        <f t="shared" ref="G42" si="33">SUBSTITUTE(F42,".","_")</f>
+        <v>5_8</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="40"/>
-        <v>9.10_6_3</v>
+        <f t="shared" si="4"/>
+        <v>9.9_5_8</v>
       </c>
       <c r="I42" t="s">
-        <v>9</v>
-      </c>
-      <c r="J42" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="J42" s="2" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#lesson"&amp;SUBSTITUTE(F42,".","p")&amp;","&amp;K42&amp;","&amp;L42&amp;","&amp;M42&amp;","&amp;N42&amp;","&amp;O42&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#lesson5p8,mapgridreference,mapgridreference,mapgridreference,mapgridreference,mapgridreference,,,,,,</v>
+      </c>
+      <c r="K42" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
+        <f t="shared" ref="A43:A48" si="34">IF(I43&lt;&gt;"Lesson","&lt;a href='"&amp;H43&amp;".html' class="&amp;I43&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
+      </c>
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;/span&gt;</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" ref="E43:E48" si="35">LEFT(B43,FIND(":",B43)-1)</f>
+        <v>Lesson 6</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" ref="F43:F48" si="36">RIGHT(E43,LEN(E43)-FIND(" ",E43))</f>
+        <v>6</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" ref="G43:G48" si="37">SUBSTITUTE(F43,".","_")</f>
+        <v>6</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="4"/>
+        <v>9.9_6</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" t="str">
+        <f t="shared" si="34"/>
+        <v>&lt;a href='9.9_6_1.html' class=Video&gt;</v>
+      </c>
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="35"/>
+        <v>Lesson 6.1</v>
+      </c>
+      <c r="F44" t="str">
         <f t="shared" si="36"/>
-        <v>&lt;a href='9.10_6_5.html' class=Video&gt;</v>
-      </c>
-      <c r="B43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" t="str">
-        <f t="shared" si="35"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E43" t="str">
+        <v>6.1</v>
+      </c>
+      <c r="G44" t="str">
         <f t="shared" si="37"/>
-        <v>Lesson 6.5</v>
-      </c>
-      <c r="F43" t="str">
-        <f t="shared" si="38"/>
-        <v>6.5</v>
-      </c>
-      <c r="G43" t="str">
-        <f t="shared" si="39"/>
-        <v>6_5</v>
-      </c>
-      <c r="H43" t="str">
-        <f t="shared" si="40"/>
-        <v>9.10_6_5</v>
-      </c>
-      <c r="I43" t="s">
+        <v>6_1</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="4"/>
+        <v>9.9_6_1</v>
+      </c>
+      <c r="I44" t="s">
         <v>9</v>
       </c>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
-        <f t="shared" ref="A45:A56" si="41">IF(I45&lt;&gt;"Lesson","&lt;a href='"&amp;H45&amp;".html' class="&amp;I45&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
-        <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
+        <f t="shared" si="34"/>
+        <v>&lt;a href='9.9_6_2.html' class=Questions&gt;</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="35"/>
-        <v>&lt;/span&gt;</v>
+        <f t="shared" si="29"/>
+        <v>&lt;/a&gt;</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" ref="E45" si="42">LEFT(B45,FIND(":",B45)-1)</f>
-        <v>Lesson 7</v>
+        <f t="shared" ref="E45" si="38">LEFT(B45,FIND(":",B45)-1)</f>
+        <v>Lesson 6.2</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" ref="F45" si="43">RIGHT(E45,LEN(E45)-FIND(" ",E45))</f>
-        <v>7</v>
+        <f t="shared" ref="F45" si="39">RIGHT(E45,LEN(E45)-FIND(" ",E45))</f>
+        <v>6.2</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" ref="G45" si="44">SUBSTITUTE(F45,".","_")</f>
-        <v>7</v>
+        <f t="shared" ref="G45" si="40">SUBSTITUTE(F45,".","_")</f>
+        <v>6_2</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" ref="H45" si="45">"9.10_"&amp;G45</f>
-        <v>9.10_7</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J45" s="2"/>
+        <f t="shared" si="4"/>
+        <v>9.9_6_2</v>
+      </c>
+      <c r="I45" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" s="2" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#lesson"&amp;SUBSTITUTE(F45,".","p")&amp;","&amp;K45&amp;","&amp;L45&amp;","&amp;M45&amp;","&amp;N45&amp;","&amp;O45&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#lesson6p2,locicircle,locicircle,locicircle,locicircle,locicircle,,,,,,</v>
+      </c>
+      <c r="K45" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;a href='9.10_7_1.html' class=Video&gt;</v>
+        <f t="shared" si="34"/>
+        <v>&lt;a href='9.9_6_3.html' class=Video&gt;</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C46" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E46" t="str">
         <f t="shared" si="35"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E46" t="str">
-        <f t="shared" ref="E46:E54" si="46">LEFT(B46,FIND(":",B46)-1)</f>
-        <v>Lesson 7.1</v>
+        <v>Lesson 6.3</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" ref="F46:F54" si="47">RIGHT(E46,LEN(E46)-FIND(" ",E46))</f>
-        <v>7.1</v>
+        <f t="shared" si="36"/>
+        <v>6.3</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" ref="G46:G54" si="48">SUBSTITUTE(F46,".","_")</f>
-        <v>7_1</v>
+        <f t="shared" si="37"/>
+        <v>6_3</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" ref="H46:H54" si="49">"9.10_"&amp;G46</f>
-        <v>9.10_7_1</v>
+        <f t="shared" si="4"/>
+        <v>9.9_6_3</v>
       </c>
       <c r="I46" t="s">
         <v>9</v>
@@ -2195,518 +2349,665 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;a href='9.10_7_2.html' class=Questions&gt;</v>
+        <f t="shared" ref="A47" si="41">IF(I47&lt;&gt;"Lesson","&lt;a href='"&amp;H47&amp;".html' class="&amp;I47&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <v>&lt;a href='9.9_6_4.html' class=Questions&gt;</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C47" t="str">
+        <f t="shared" ref="C47" si="42">IF(I47&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E47" t="str">
         <f t="shared" si="35"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E47" t="str">
-        <f t="shared" ref="E47:E51" si="50">LEFT(B47,FIND(":",B47)-1)</f>
-        <v>Lesson 7.2</v>
+        <v>Lesson 6.4</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" ref="F47:F51" si="51">RIGHT(E47,LEN(E47)-FIND(" ",E47))</f>
-        <v>7.2</v>
+        <f t="shared" si="36"/>
+        <v>6.4</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" ref="G47:G51" si="52">SUBSTITUTE(F47,".","_")</f>
-        <v>7_2</v>
+        <f t="shared" si="37"/>
+        <v>6_4</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" ref="H47:H51" si="53">"9.10_"&amp;G47</f>
-        <v>9.10_7_2</v>
+        <f t="shared" si="4"/>
+        <v>9.9_6_4</v>
       </c>
       <c r="I47" t="s">
         <v>10</v>
       </c>
       <c r="J47" s="2" t="str">
         <f>"https://students.mathsnz.com/qg/onscreen.html#lesson"&amp;SUBSTITUTE(F47,".","p")&amp;","&amp;K47&amp;","&amp;L47&amp;","&amp;M47&amp;","&amp;N47&amp;","&amp;O47&amp;","</f>
-        <v>https://students.mathsnz.com/qg/onscreen.html#lesson7p2,anglerulesline,anglerulesline,anglerulesline2,anglerulesline2,anglerulesline3,,,,,,</v>
+        <v>https://students.mathsnz.com/qg/onscreen.html#lesson6p4,lociline,lociline,lociline,lociline,lociline,,,,,,</v>
       </c>
       <c r="K47" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;a href='9.10_7_3.html' class=Video&gt;</v>
+        <f t="shared" si="34"/>
+        <v>&lt;a href='9.9_6_5.html' class=Document&gt;</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="C48" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E48" t="str">
         <f t="shared" si="35"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E48" t="str">
+        <v>Lesson 6.5</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="36"/>
+        <v>6.5</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="37"/>
+        <v>6_5</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="4"/>
+        <v>9.9_6_5</v>
+      </c>
+      <c r="I48" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" t="str">
+        <f t="shared" ref="A49:A60" si="43">IF(I49&lt;&gt;"Lesson","&lt;a href='"&amp;H49&amp;".html' class="&amp;I49&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
+      </c>
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;/span&gt;</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" ref="E49" si="44">LEFT(B49,FIND(":",B49)-1)</f>
+        <v>Lesson 7</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" ref="F49" si="45">RIGHT(E49,LEN(E49)-FIND(" ",E49))</f>
+        <v>7</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" ref="G49" si="46">SUBSTITUTE(F49,".","_")</f>
+        <v>7</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="4"/>
+        <v>9.9_7</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="str">
+        <f t="shared" si="43"/>
+        <v>&lt;a href='9.9_7_1.html' class=Video&gt;</v>
+      </c>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" ref="E50:E58" si="47">LEFT(B50,FIND(":",B50)-1)</f>
+        <v>Lesson 7.1</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" ref="F50:F58" si="48">RIGHT(E50,LEN(E50)-FIND(" ",E50))</f>
+        <v>7.1</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" ref="G50:G58" si="49">SUBSTITUTE(F50,".","_")</f>
+        <v>7_1</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="4"/>
+        <v>9.9_7_1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>9</v>
+      </c>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" t="str">
+        <f t="shared" si="43"/>
+        <v>&lt;a href='9.9_7_2.html' class=Questions&gt;</v>
+      </c>
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" ref="E51:E55" si="50">LEFT(B51,FIND(":",B51)-1)</f>
+        <v>Lesson 7.2</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" ref="F51:F55" si="51">RIGHT(E51,LEN(E51)-FIND(" ",E51))</f>
+        <v>7.2</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" ref="G51:G55" si="52">SUBSTITUTE(F51,".","_")</f>
+        <v>7_2</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="4"/>
+        <v>9.9_7_2</v>
+      </c>
+      <c r="I51" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51" s="2" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#lesson"&amp;SUBSTITUTE(F51,".","p")&amp;","&amp;K51&amp;","&amp;L51&amp;","&amp;M51&amp;","&amp;N51&amp;","&amp;O51&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#lesson7p2,anglerulesline,anglerulesline,anglerulesline2,anglerulesline2,anglerulesline3,,,,,,</v>
+      </c>
+      <c r="K51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="str">
+        <f t="shared" si="43"/>
+        <v>&lt;a href='9.9_7_3.html' class=Video&gt;</v>
+      </c>
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E52" t="str">
         <f t="shared" si="50"/>
         <v>Lesson 7.3</v>
       </c>
-      <c r="F48" t="str">
+      <c r="F52" t="str">
         <f t="shared" si="51"/>
         <v>7.3</v>
       </c>
-      <c r="G48" t="str">
+      <c r="G52" t="str">
         <f t="shared" si="52"/>
         <v>7_3</v>
       </c>
-      <c r="H48" t="str">
-        <f t="shared" si="53"/>
-        <v>9.10_7_3</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="H52" t="str">
+        <f t="shared" si="4"/>
+        <v>9.9_7_3</v>
+      </c>
+      <c r="I52" t="s">
         <v>9</v>
       </c>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;a href='9.10_7_4.html' class=Questions&gt;</v>
-      </c>
-      <c r="B49" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" t="str">
-        <f t="shared" si="35"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E49" t="str">
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" t="str">
+        <f t="shared" si="43"/>
+        <v>&lt;a href='9.9_7_4.html' class=Questions&gt;</v>
+      </c>
+      <c r="B53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E53" t="str">
         <f t="shared" si="50"/>
         <v>Lesson 7.4</v>
       </c>
-      <c r="F49" t="str">
+      <c r="F53" t="str">
         <f t="shared" si="51"/>
         <v>7.4</v>
       </c>
-      <c r="G49" t="str">
+      <c r="G53" t="str">
         <f t="shared" si="52"/>
         <v>7_4</v>
       </c>
-      <c r="H49" t="str">
-        <f t="shared" si="53"/>
-        <v>9.10_7_4</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="H53" t="str">
+        <f t="shared" si="4"/>
+        <v>9.9_7_4</v>
+      </c>
+      <c r="I53" t="s">
         <v>10</v>
       </c>
-      <c r="J49" s="2" t="str">
-        <f>"https://students.mathsnz.com/qg/onscreen.html#lesson"&amp;SUBSTITUTE(F49,".","p")&amp;","&amp;K49&amp;","&amp;L49&amp;","&amp;M49&amp;","&amp;N49&amp;","&amp;O49&amp;","</f>
+      <c r="J53" s="2" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#lesson"&amp;SUBSTITUTE(F53,".","p")&amp;","&amp;K53&amp;","&amp;L53&amp;","&amp;M53&amp;","&amp;N53&amp;","&amp;O53&amp;","</f>
         <v>https://students.mathsnz.com/qg/onscreen.html#lesson7p4,anglerulespoint,anglerulespoint2,anglerulespoint3,anglerulespoint3,anglerulespoint4,,,,,,</v>
       </c>
-      <c r="K49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;a href='9.10_7_5.html' class=Video&gt;</v>
-      </c>
-      <c r="B50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" t="str">
-        <f t="shared" si="35"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E50" t="str">
+      <c r="K53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" t="str">
+        <f t="shared" si="43"/>
+        <v>&lt;a href='9.9_7_5.html' class=Video&gt;</v>
+      </c>
+      <c r="B54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E54" t="str">
         <f t="shared" si="50"/>
         <v>Lesson 7.5</v>
       </c>
-      <c r="F50" t="str">
+      <c r="F54" t="str">
         <f t="shared" si="51"/>
         <v>7.5</v>
       </c>
-      <c r="G50" t="str">
+      <c r="G54" t="str">
         <f t="shared" si="52"/>
         <v>7_5</v>
       </c>
-      <c r="H50" t="str">
-        <f t="shared" si="53"/>
-        <v>9.10_7_5</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="H54" t="str">
+        <f t="shared" si="4"/>
+        <v>9.9_7_5</v>
+      </c>
+      <c r="I54" t="s">
         <v>9</v>
       </c>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;a href='9.10_7_5.html' class=Questions&gt;</v>
-      </c>
-      <c r="B51" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" t="str">
-        <f t="shared" si="35"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E51" t="str">
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" t="str">
+        <f t="shared" si="43"/>
+        <v>&lt;a href='9.9_7_5.html' class=Questions&gt;</v>
+      </c>
+      <c r="B55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E55" t="str">
         <f t="shared" si="50"/>
         <v>Lesson 7.5</v>
       </c>
-      <c r="F51" t="str">
+      <c r="F55" t="str">
         <f t="shared" si="51"/>
         <v>7.5</v>
       </c>
-      <c r="G51" t="str">
+      <c r="G55" t="str">
         <f t="shared" si="52"/>
         <v>7_5</v>
       </c>
-      <c r="H51" t="str">
-        <f t="shared" si="53"/>
-        <v>9.10_7_5</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="H55" t="str">
+        <f t="shared" si="4"/>
+        <v>9.9_7_5</v>
+      </c>
+      <c r="I55" t="s">
         <v>10</v>
       </c>
-      <c r="J51" s="2" t="str">
-        <f>"https://students.mathsnz.com/qg/onscreen.html#lesson"&amp;SUBSTITUTE(F51,".","p")&amp;","&amp;K51&amp;","&amp;L51&amp;","&amp;M51&amp;","&amp;N51&amp;","&amp;O51&amp;","</f>
+      <c r="J55" s="2" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#lesson"&amp;SUBSTITUTE(F55,".","p")&amp;","&amp;K55&amp;","&amp;L55&amp;","&amp;M55&amp;","&amp;N55&amp;","&amp;O55&amp;","</f>
         <v>https://students.mathsnz.com/qg/onscreen.html#lesson7p5,anglerulesvertop,anglerulesvertop,anglerulesvertop,anglerulesvertop,anglerulesvertop,,,,,,</v>
       </c>
-      <c r="K51" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;a href='9.10_7_7.html' class=Video&gt;</v>
-      </c>
-      <c r="B52" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" t="str">
-        <f t="shared" si="35"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E52" t="str">
-        <f t="shared" si="46"/>
-        <v>Lesson 7.7</v>
-      </c>
-      <c r="F52" t="str">
-        <f t="shared" si="47"/>
-        <v>7.7</v>
-      </c>
-      <c r="G52" t="str">
-        <f t="shared" si="48"/>
-        <v>7_7</v>
-      </c>
-      <c r="H52" t="str">
-        <f t="shared" si="49"/>
-        <v>9.10_7_7</v>
-      </c>
-      <c r="I52" t="s">
-        <v>9</v>
-      </c>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;a href='9.10_7_8.html' class=Questions&gt;</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="K55" t="s">
         <v>79</v>
       </c>
-      <c r="C53" t="str">
-        <f t="shared" si="35"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E53" t="str">
-        <f t="shared" si="46"/>
-        <v>Lesson 7.8</v>
-      </c>
-      <c r="F53" t="str">
-        <f t="shared" si="47"/>
-        <v>7.8</v>
-      </c>
-      <c r="G53" t="str">
-        <f t="shared" si="48"/>
-        <v>7_8</v>
-      </c>
-      <c r="H53" t="str">
-        <f t="shared" si="49"/>
-        <v>9.10_7_8</v>
-      </c>
-      <c r="I53" t="s">
-        <v>10</v>
-      </c>
-      <c r="J53" s="2" t="str">
-        <f>"https://students.mathsnz.com/qg/onscreen.html#lesson"&amp;SUBSTITUTE(F53,".","p")&amp;","&amp;K53&amp;","&amp;L53&amp;","&amp;M53&amp;","&amp;N53&amp;","&amp;O53&amp;","</f>
-        <v>https://students.mathsnz.com/qg/onscreen.html#lesson7p8,anglerulestriangle,anglerulestriangle,anglerulestriangle,anglerulestriangle,anglerulestriangle,,,,,,</v>
-      </c>
-      <c r="K53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;a href='9.10_7_9.html' class=Questions&gt;</v>
-      </c>
-      <c r="B54" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" t="str">
-        <f t="shared" si="35"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E54" t="str">
-        <f t="shared" si="46"/>
-        <v>Lesson 7.9</v>
-      </c>
-      <c r="F54" t="str">
-        <f t="shared" si="47"/>
-        <v>7.9</v>
-      </c>
-      <c r="G54" t="str">
-        <f t="shared" si="48"/>
-        <v>7_9</v>
-      </c>
-      <c r="H54" t="str">
-        <f t="shared" si="49"/>
-        <v>9.10_7_9</v>
-      </c>
-      <c r="I54" t="s">
-        <v>10</v>
-      </c>
-      <c r="J54" s="2" t="str">
-        <f>"https://students.mathsnz.com/qg/onscreen.html#lesson"&amp;SUBSTITUTE(F54,".","p")&amp;","&amp;K54&amp;","&amp;L54&amp;","&amp;M54&amp;","&amp;N54&amp;","&amp;O54&amp;","</f>
-        <v>https://students.mathsnz.com/qg/onscreen.html#lesson7p9,anglerulesmixed,anglerulesmixed,anglerulesmixed,anglerulesmixed,anglerulesmixed,,,,,,</v>
-      </c>
-      <c r="K54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;a href='9.10_7_10.html' class=Document&gt;</v>
-      </c>
-      <c r="B55" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55" t="str">
-        <f t="shared" si="35"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E55" t="str">
-        <f t="shared" ref="E55" si="54">LEFT(B55,FIND(":",B55)-1)</f>
-        <v>Lesson 7.10</v>
-      </c>
-      <c r="F55" t="str">
-        <f t="shared" ref="F55" si="55">RIGHT(E55,LEN(E55)-FIND(" ",E55))</f>
-        <v>7.10</v>
-      </c>
-      <c r="G55" t="str">
-        <f t="shared" ref="G55" si="56">SUBSTITUTE(F55,".","_")</f>
-        <v>7_10</v>
-      </c>
-      <c r="H55" t="str">
-        <f t="shared" ref="H55" si="57">"9.10_"&amp;G55</f>
-        <v>9.10_7_10</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
-        <f t="shared" si="41"/>
-        <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
+        <f t="shared" si="43"/>
+        <v>&lt;a href='9.9_7_7.html' class=Video&gt;</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" ref="C56:C57" si="58">IF(I56&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
-        <v>&lt;/span&gt;</v>
+        <f t="shared" si="29"/>
+        <v>&lt;/a&gt;</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" ref="E56:E57" si="59">LEFT(B56,FIND(":",B56)-1)</f>
-        <v>Lesson 8</v>
+        <f t="shared" si="47"/>
+        <v>Lesson 7.7</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" ref="F56:F57" si="60">RIGHT(E56,LEN(E56)-FIND(" ",E56))</f>
-        <v>8</v>
+        <f t="shared" si="48"/>
+        <v>7.7</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" ref="G56:G57" si="61">SUBSTITUTE(F56,".","_")</f>
-        <v>8</v>
+        <f t="shared" si="49"/>
+        <v>7_7</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" ref="H56:H57" si="62">"9.10_"&amp;G56</f>
-        <v>9.10_8</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>9.9_7_7</v>
+      </c>
+      <c r="I56" t="s">
+        <v>9</v>
       </c>
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
-        <f t="shared" ref="A57" si="63">IF(I57&lt;&gt;"Lesson","&lt;a href='"&amp;H57&amp;".html' class="&amp;I57&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
-        <v>&lt;a href='9.10_8_1.html' class=Questions&gt;</v>
+        <f t="shared" si="43"/>
+        <v>&lt;a href='9.9_7_8.html' class=Questions&gt;</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="29"/>
         <v>&lt;/a&gt;</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="59"/>
-        <v>Lesson 8.1</v>
+        <f t="shared" si="47"/>
+        <v>Lesson 7.8</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="60"/>
-        <v>8.1</v>
+        <f t="shared" si="48"/>
+        <v>7.8</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="61"/>
-        <v>8_1</v>
+        <f t="shared" si="49"/>
+        <v>7_8</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="62"/>
-        <v>9.10_8_1</v>
+        <f t="shared" si="4"/>
+        <v>9.9_7_8</v>
       </c>
       <c r="I57" t="s">
         <v>10</v>
       </c>
       <c r="J57" s="2" t="str">
         <f>"https://students.mathsnz.com/qg/onscreen.html#lesson"&amp;SUBSTITUTE(F57,".","p")&amp;","&amp;K57&amp;","&amp;L57&amp;","&amp;M57&amp;","&amp;N57&amp;","&amp;O57&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#lesson7p8,anglerulestriangle,anglerulestriangle,anglerulestriangle,anglerulestriangle,anglerulestriangle,,,,,,</v>
+      </c>
+      <c r="K57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" t="str">
+        <f t="shared" si="43"/>
+        <v>&lt;a href='9.9_7_9.html' class=Questions&gt;</v>
+      </c>
+      <c r="B58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="47"/>
+        <v>Lesson 7.9</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="48"/>
+        <v>7.9</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="49"/>
+        <v>7_9</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="4"/>
+        <v>9.9_7_9</v>
+      </c>
+      <c r="I58" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58" s="2" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#lesson"&amp;SUBSTITUTE(F58,".","p")&amp;","&amp;K58&amp;","&amp;L58&amp;","&amp;M58&amp;","&amp;N58&amp;","&amp;O58&amp;","</f>
+        <v>https://students.mathsnz.com/qg/onscreen.html#lesson7p9,anglerulesmixed,anglerulesmixed,anglerulesmixed,anglerulesmixed,anglerulesmixed,,,,,,</v>
+      </c>
+      <c r="K58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" t="str">
+        <f t="shared" si="43"/>
+        <v>&lt;a href='9.9_7_10.html' class=Document&gt;</v>
+      </c>
+      <c r="B59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="29"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" ref="E59" si="53">LEFT(B59,FIND(":",B59)-1)</f>
+        <v>Lesson 7.10</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" ref="F59" si="54">RIGHT(E59,LEN(E59)-FIND(" ",E59))</f>
+        <v>7.10</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" ref="G59" si="55">SUBSTITUTE(F59,".","_")</f>
+        <v>7_10</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="4"/>
+        <v>9.9_7_10</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" t="str">
+        <f t="shared" si="43"/>
+        <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
+      </c>
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" ref="C60:C61" si="56">IF(I60&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+        <v>&lt;/span&gt;</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" ref="E60:E61" si="57">LEFT(B60,FIND(":",B60)-1)</f>
+        <v>Lesson 8</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" ref="F60:F61" si="58">RIGHT(E60,LEN(E60)-FIND(" ",E60))</f>
+        <v>8</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" ref="G60:G61" si="59">SUBSTITUTE(F60,".","_")</f>
+        <v>8</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="4"/>
+        <v>9.9_8</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" t="str">
+        <f t="shared" ref="A61" si="60">IF(I61&lt;&gt;"Lesson","&lt;a href='"&amp;H61&amp;".html' class="&amp;I61&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+        <v>&lt;a href='9.9_8_1.html' class=Questions&gt;</v>
+      </c>
+      <c r="B61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="56"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="57"/>
+        <v>Lesson 8.1</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="58"/>
+        <v>8.1</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="59"/>
+        <v>8_1</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="4"/>
+        <v>9.9_8_1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>10</v>
+      </c>
+      <c r="J61" s="2" t="str">
+        <f>"https://students.mathsnz.com/qg/onscreen.html#lesson"&amp;SUBSTITUTE(F61,".","p")&amp;","&amp;K61&amp;","&amp;L61&amp;","&amp;M61&amp;","&amp;N61&amp;","&amp;O61&amp;","</f>
         <v>https://students.mathsnz.com/qg/onscreen.html#lesson8p1,shapesregular,shapestriangles,shapesquad,isodraw6,sidetopview6,isodrawfg6,transformationreflection,transformationtranslation,transformationenlargement,transformationrotation,anglerulesmixed,anglerulesmixed,anglerulesmixed,,,,,,</v>
       </c>
-      <c r="K57" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I58" s="3"/>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="str">
-        <f t="shared" ref="A59:A61" si="64">IF(I59&lt;&gt;"Lesson","&lt;a href='"&amp;H59&amp;".html' class="&amp;I59&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
+      <c r="K61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="str">
+        <f t="shared" ref="A62:A64" si="61">IF(I62&lt;&gt;"Lesson","&lt;a href='"&amp;H62&amp;".html' class="&amp;I62&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" s="3" t="str">
-        <f t="shared" ref="C59:C61" si="65">IF(I59&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
+      <c r="B62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="3" t="str">
+        <f t="shared" ref="C62:C64" si="62">IF(I62&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
         <v>&lt;/span&gt;</v>
       </c>
-      <c r="E59" t="str">
+      <c r="E62" t="str">
         <f t="shared" si="5"/>
         <v>Extra Notes</v>
       </c>
-      <c r="F59" t="str">
+      <c r="F62" t="str">
         <f t="shared" si="6"/>
         <v>Notes</v>
       </c>
-      <c r="G59" t="str">
+      <c r="G62" t="str">
         <f t="shared" si="7"/>
         <v>Notes</v>
       </c>
-      <c r="H59" t="str">
-        <f t="shared" si="8"/>
-        <v>9.10_Notes</v>
-      </c>
-      <c r="I59" s="3" t="s">
+      <c r="H62" t="str">
+        <f t="shared" si="4"/>
+        <v>9.9_Notes</v>
+      </c>
+      <c r="I62" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K59"/>
-    </row>
-    <row r="60" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="str">
-        <f t="shared" si="64"/>
-        <v>&lt;a href='9.10_Notes 1.html' class=Document&gt;</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" s="3" t="str">
-        <f t="shared" si="65"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E60" t="str">
+      <c r="K62"/>
+    </row>
+    <row r="63" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="str">
+        <f t="shared" si="61"/>
+        <v>&lt;a href='9.9_Notes 1.html' class=Document&gt;</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="3" t="str">
+        <f t="shared" si="62"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E63" t="str">
         <f t="shared" si="5"/>
         <v>Extra Notes 1</v>
       </c>
-      <c r="F60" t="str">
+      <c r="F63" t="str">
         <f t="shared" si="6"/>
         <v>Notes 1</v>
       </c>
-      <c r="G60" t="str">
+      <c r="G63" t="str">
         <f t="shared" si="7"/>
         <v>Notes 1</v>
       </c>
-      <c r="H60" t="str">
-        <f t="shared" si="8"/>
-        <v>9.10_Notes 1</v>
-      </c>
-      <c r="I60" s="3" t="s">
+      <c r="H63" t="str">
+        <f t="shared" si="4"/>
+        <v>9.9_Notes 1</v>
+      </c>
+      <c r="I63" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J60" s="4"/>
-      <c r="K60"/>
-    </row>
-    <row r="61" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="str">
-        <f t="shared" si="64"/>
-        <v>&lt;a href='9.10_Notes 2.html' class=Document&gt;</v>
-      </c>
-      <c r="B61" s="3" t="s">
+      <c r="J63" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K63"/>
+    </row>
+    <row r="64" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="str">
+        <f t="shared" si="61"/>
+        <v>&lt;a href='9.9_Notes 2.html' class=Document&gt;</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="3" t="str">
+        <f t="shared" si="62"/>
+        <v>&lt;/a&gt;</v>
+      </c>
+      <c r="E64" s="3" t="str">
+        <f t="shared" ref="E64" si="63">LEFT(B64,FIND(":",B64)-1)</f>
+        <v>Extra Notes 2</v>
+      </c>
+      <c r="F64" s="3" t="str">
+        <f t="shared" ref="F64" si="64">RIGHT(E64,LEN(E64)-FIND(" ",E64))</f>
+        <v>Notes 2</v>
+      </c>
+      <c r="G64" s="3" t="str">
+        <f t="shared" ref="G64" si="65">SUBSTITUTE(F64,".","_")</f>
+        <v>Notes 2</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="4"/>
+        <v>9.9_Notes 2</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J64" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="3" t="str">
-        <f t="shared" si="65"/>
-        <v>&lt;/a&gt;</v>
-      </c>
-      <c r="E61" s="3" t="str">
-        <f t="shared" ref="E61" si="66">LEFT(B61,FIND(":",B61)-1)</f>
-        <v>Extra Notes 2</v>
-      </c>
-      <c r="F61" s="3" t="str">
-        <f t="shared" ref="F61" si="67">RIGHT(E61,LEN(E61)-FIND(" ",E61))</f>
-        <v>Notes 2</v>
-      </c>
-      <c r="G61" s="3" t="str">
-        <f t="shared" ref="G61" si="68">SUBSTITUTE(F61,".","_")</f>
-        <v>Notes 2</v>
-      </c>
-      <c r="H61" s="3" t="str">
-        <f t="shared" ref="H61" si="69">"9.10_"&amp;G61</f>
-        <v>9.10_Notes 2</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K61"/>
+      <c r="K64"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1"/>
     <hyperlink ref="J9" r:id="rId2"/>
-    <hyperlink ref="J61" r:id="rId3"/>
+    <hyperlink ref="J64" r:id="rId3"/>
     <hyperlink ref="J17" r:id="rId4"/>
+    <hyperlink ref="J5" r:id="rId5"/>
+    <hyperlink ref="J7" r:id="rId6"/>
+    <hyperlink ref="J11" r:id="rId7"/>
+    <hyperlink ref="J13" r:id="rId8"/>
+    <hyperlink ref="J48" r:id="rId9"/>
+    <hyperlink ref="J59" r:id="rId10"/>
+    <hyperlink ref="J63" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
 </worksheet>
 </file>
--- a/9.9/left.xlsx
+++ b/9.9/left.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="129">
   <si>
     <t>Before</t>
   </si>
@@ -260,9 +260,6 @@
     <t>Lesson 7.4: Angles at a Point Exercise</t>
   </si>
   <si>
-    <t>Lesson 7.5: Vertically Opposite Angles Exercise</t>
-  </si>
-  <si>
     <t>anglerulesline,anglerulesline,anglerulesline2,anglerulesline2,anglerulesline3,</t>
   </si>
   <si>
@@ -363,6 +360,63 @@
   </si>
   <si>
     <t>https://docs.google.com/viewer?url=https://students.mathsnz.com/9.9/pdfs/5.pdf&amp;embedded=true</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/jqtD72HSXHw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/EPox8ftOask</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/arSzKMDqQ_8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/CON8yPJAp10</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/abdK5ug6TDo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/MTgx9s2TbHM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/3t3tbnU56nE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/1NfPYJ0CzeU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/K0xx5d7ZT-M</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/5KLqRsXA8ME</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/-WU6jI_gFH4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/LkhK0KJf-c8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/834gDf2YC_s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/RQvGiHjP90E</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/i-7_5nxt7GA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/V_aO0w-MrGs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/l9D2xFJTERw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/ShP5uu0vr6E</t>
+  </si>
+  <si>
+    <t>Lesson 7.6: Vertically Opposite Angles Exercise</t>
   </si>
 </sst>
 </file>
@@ -420,7 +474,18 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -698,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -805,7 +870,7 @@
         <v>9</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -879,7 +944,7 @@
         <v>9</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -953,7 +1018,7 @@
         <v>9</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1095,7 +1160,7 @@
         <v>9</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1134,7 +1199,7 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#lesson2p2,solids,,,,,</v>
       </c>
       <c r="K12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1169,7 +1234,7 @@
         <v>9</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1208,7 +1273,7 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#lesson2p4,solidsnets,,,,,</v>
       </c>
       <c r="K14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1242,7 +1307,9 @@
       <c r="I15" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
@@ -1382,7 +1449,9 @@
       <c r="I19" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
@@ -1454,7 +1523,9 @@
       <c r="I21" t="s">
         <v>9</v>
       </c>
-      <c r="J21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
@@ -1526,7 +1597,9 @@
       <c r="I23" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="2"/>
+      <c r="J23" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
@@ -1631,7 +1704,9 @@
       <c r="I26" t="s">
         <v>9</v>
       </c>
-      <c r="J26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
@@ -1703,7 +1778,9 @@
       <c r="I28" t="s">
         <v>9</v>
       </c>
-      <c r="J28" s="2"/>
+      <c r="J28" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
@@ -1775,7 +1852,9 @@
       <c r="I30" t="s">
         <v>9</v>
       </c>
-      <c r="J30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
@@ -1847,7 +1926,9 @@
       <c r="I32" t="s">
         <v>9</v>
       </c>
-      <c r="J32" s="2"/>
+      <c r="J32" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
@@ -1927,7 +2008,7 @@
         <v>&lt;a href='9.9_5_1.html' class=Video&gt;</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="29"/>
@@ -1952,7 +2033,9 @@
       <c r="I35" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="2"/>
+      <c r="J35" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
@@ -1960,7 +2043,7 @@
         <v>&lt;a href='9.9_5_2.html' class=Questions&gt;</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="29"/>
@@ -1990,7 +2073,7 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#lesson5p2,mapdistance,mapdistance,mapdistance,mapdistance,mapdistance,,,,,,</v>
       </c>
       <c r="K36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -1999,7 +2082,7 @@
         <v>&lt;a href='9.9_5_3.html' class=Video&gt;</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="29"/>
@@ -2024,7 +2107,9 @@
       <c r="I37" t="s">
         <v>9</v>
       </c>
-      <c r="J37" s="2"/>
+      <c r="J37" s="2" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
@@ -2032,7 +2117,7 @@
         <v>&lt;a href='9.9_5_4.html' class=Questions&gt;</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="29"/>
@@ -2062,7 +2147,7 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#lesson5p4,mapcompass,mapcompass,mapcompass,mapcompass,mapcompass,,,,,,</v>
       </c>
       <c r="K38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2071,7 +2156,7 @@
         <v>&lt;a href='9.9_5_5.html' class=Video&gt;</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="29"/>
@@ -2096,7 +2181,9 @@
       <c r="I39" t="s">
         <v>9</v>
       </c>
-      <c r="J39" s="2"/>
+      <c r="J39" s="2" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
@@ -2104,7 +2191,7 @@
         <v>&lt;a href='9.9_5_6.html' class=Questions&gt;</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="29"/>
@@ -2134,7 +2221,7 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#lesson5p6,mapbearing,mapbearing,mapbearing,mapbearing,mapbearing,,,,,,</v>
       </c>
       <c r="K40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -2143,7 +2230,7 @@
         <v>&lt;a href='9.9_5_7.html' class=Video&gt;</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="29"/>
@@ -2168,7 +2255,9 @@
       <c r="I41" t="s">
         <v>9</v>
       </c>
-      <c r="J41" s="2"/>
+      <c r="J41" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
@@ -2176,7 +2265,7 @@
         <v>&lt;a href='9.9_5_8.html' class=Questions&gt;</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" ref="C42" si="30">IF(I42&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -2206,7 +2295,7 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#lesson5p8,mapgridreference,mapgridreference,mapgridreference,mapgridreference,mapgridreference,,,,,,</v>
       </c>
       <c r="K42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -2273,7 +2362,9 @@
       <c r="I44" t="s">
         <v>9</v>
       </c>
-      <c r="J44" s="2"/>
+      <c r="J44" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
@@ -2281,7 +2372,7 @@
         <v>&lt;a href='9.9_6_2.html' class=Questions&gt;</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="29"/>
@@ -2311,7 +2402,7 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#lesson6p2,locicircle,locicircle,locicircle,locicircle,locicircle,,,,,,</v>
       </c>
       <c r="K45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -2345,7 +2436,9 @@
       <c r="I46" t="s">
         <v>9</v>
       </c>
-      <c r="J46" s="2"/>
+      <c r="J46" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
@@ -2353,7 +2446,7 @@
         <v>&lt;a href='9.9_6_4.html' class=Questions&gt;</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" ref="C47" si="42">IF(I47&lt;&gt;"Lesson","&lt;/a&gt;","&lt;/span&gt;")</f>
@@ -2383,7 +2476,7 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#lesson6p4,lociline,lociline,lociline,lociline,lociline,,,,,,</v>
       </c>
       <c r="K47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -2392,7 +2485,7 @@
         <v>&lt;a href='9.9_6_5.html' class=Document&gt;</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="29"/>
@@ -2418,7 +2511,7 @@
         <v>8</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -2485,7 +2578,9 @@
       <c r="I50" t="s">
         <v>9</v>
       </c>
-      <c r="J50" s="2"/>
+      <c r="J50" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
@@ -2523,7 +2618,7 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#lesson7p2,anglerulesline,anglerulesline,anglerulesline2,anglerulesline2,anglerulesline3,,,,,,</v>
       </c>
       <c r="K51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -2557,7 +2652,9 @@
       <c r="I52" t="s">
         <v>9</v>
       </c>
-      <c r="J52" s="2"/>
+      <c r="J52" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
@@ -2595,7 +2692,7 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#lesson7p4,anglerulespoint,anglerulespoint2,anglerulespoint3,anglerulespoint3,anglerulespoint4,,,,,,</v>
       </c>
       <c r="K53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -2629,15 +2726,17 @@
       <c r="I54" t="s">
         <v>9</v>
       </c>
-      <c r="J54" s="2"/>
+      <c r="J54" s="2" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f t="shared" si="43"/>
-        <v>&lt;a href='9.9_7_5.html' class=Questions&gt;</v>
+        <v>&lt;a href='9.9_7_6.html' class=Questions&gt;</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="29"/>
@@ -2645,29 +2744,29 @@
       </c>
       <c r="E55" t="str">
         <f t="shared" si="50"/>
-        <v>Lesson 7.5</v>
+        <v>Lesson 7.6</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="51"/>
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="52"/>
-        <v>7_5</v>
+        <v>7_6</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="4"/>
-        <v>9.9_7_5</v>
+        <v>9.9_7_6</v>
       </c>
       <c r="I55" t="s">
         <v>10</v>
       </c>
       <c r="J55" s="2" t="str">
         <f>"https://students.mathsnz.com/qg/onscreen.html#lesson"&amp;SUBSTITUTE(F55,".","p")&amp;","&amp;K55&amp;","&amp;L55&amp;","&amp;M55&amp;","&amp;N55&amp;","&amp;O55&amp;","</f>
-        <v>https://students.mathsnz.com/qg/onscreen.html#lesson7p5,anglerulesvertop,anglerulesvertop,anglerulesvertop,anglerulesvertop,anglerulesvertop,,,,,,</v>
+        <v>https://students.mathsnz.com/qg/onscreen.html#lesson7p6,anglerulesvertop,anglerulesvertop,anglerulesvertop,anglerulesvertop,anglerulesvertop,,,,,,</v>
       </c>
       <c r="K55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -2701,7 +2800,9 @@
       <c r="I56" t="s">
         <v>9</v>
       </c>
-      <c r="J56" s="2"/>
+      <c r="J56" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
@@ -2748,7 +2849,7 @@
         <v>&lt;a href='9.9_7_9.html' class=Questions&gt;</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="29"/>
@@ -2778,7 +2879,7 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#lesson7p9,anglerulesmixed,anglerulesmixed,anglerulesmixed,anglerulesmixed,anglerulesmixed,,,,,,</v>
       </c>
       <c r="K58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -2787,7 +2888,7 @@
         <v>&lt;a href='9.9_7_10.html' class=Document&gt;</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="29"/>
@@ -2813,7 +2914,7 @@
         <v>8</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -2885,7 +2986,7 @@
         <v>https://students.mathsnz.com/qg/onscreen.html#lesson8p1,shapesregular,shapestriangles,shapesquad,isodraw6,sidetopview6,isodrawfg6,transformationreflection,transformationtranslation,transformationenlargement,transformationrotation,anglerulesmixed,anglerulesmixed,anglerulesmixed,,,,,,</v>
       </c>
       <c r="K61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2953,7 +3054,7 @@
         <v>8</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K63"/>
     </row>
@@ -2994,6 +3095,11 @@
       <c r="K64"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"https://www.youtube.com/embed/"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1"/>
     <hyperlink ref="J9" r:id="rId2"/>
@@ -3006,8 +3112,26 @@
     <hyperlink ref="J48" r:id="rId9"/>
     <hyperlink ref="J59" r:id="rId10"/>
     <hyperlink ref="J63" r:id="rId11"/>
+    <hyperlink ref="J15" r:id="rId12"/>
+    <hyperlink ref="J19" r:id="rId13"/>
+    <hyperlink ref="J21" r:id="rId14"/>
+    <hyperlink ref="J23" r:id="rId15"/>
+    <hyperlink ref="J26" r:id="rId16"/>
+    <hyperlink ref="J28" r:id="rId17"/>
+    <hyperlink ref="J30" r:id="rId18"/>
+    <hyperlink ref="J32" r:id="rId19"/>
+    <hyperlink ref="J35" r:id="rId20"/>
+    <hyperlink ref="J37" r:id="rId21"/>
+    <hyperlink ref="J39" r:id="rId22"/>
+    <hyperlink ref="J41" r:id="rId23"/>
+    <hyperlink ref="J44" r:id="rId24"/>
+    <hyperlink ref="J46" r:id="rId25"/>
+    <hyperlink ref="J50" r:id="rId26"/>
+    <hyperlink ref="J52" r:id="rId27"/>
+    <hyperlink ref="J54" r:id="rId28"/>
+    <hyperlink ref="J56" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId30"/>
 </worksheet>
 </file>
--- a/9.9/left.xlsx
+++ b/9.9/left.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakew\Dropbox\Documents\GitHub\students.mathsnz.com\9.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakew\Documents\GitHub\students.mathsnz.com\9.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="456" windowWidth="14340" windowHeight="6612"/>
+    <workbookView xWindow="1020" yWindow="460" windowWidth="14340" windowHeight="6610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -760,24 +760,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.88671875" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.90625" customWidth="1"/>
+    <col min="4" max="4" width="7.6328125" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" customWidth="1"/>
+    <col min="10" max="10" width="11.90625" customWidth="1"/>
     <col min="11" max="15" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -806,7 +806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>IF(I2&lt;&gt;"Lesson","&lt;a href='"&amp;H2&amp;".html' class="&amp;I2&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
@@ -838,7 +838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A17" si="2">IF(I3&lt;&gt;"Lesson","&lt;a href='"&amp;H3&amp;".html' class="&amp;I3&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;a href='9.9_1_1.html' class=Video&gt;</v>
@@ -873,7 +873,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='9.9_1_2.html' class=Questions&gt;</v>
@@ -912,7 +912,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='9.9_1_3.html' class=Video&gt;</v>
@@ -947,7 +947,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='9.9_1_4.html' class=Questions&gt;</v>
@@ -986,7 +986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='9.9_1_5.html' class=Video&gt;</v>
@@ -1021,7 +1021,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='9.9_1_6.html' class=Questions&gt;</v>
@@ -1060,7 +1060,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='9.9_1_7.html' class=Document&gt;</v>
@@ -1095,7 +1095,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f t="shared" si="2"/>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='9.9_2_1.html' class=Video&gt;</v>
@@ -1163,7 +1163,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='9.9_2_2.html' class=Questions&gt;</v>
@@ -1202,7 +1202,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='9.9_2_3.html' class=Video&gt;</v>
@@ -1237,7 +1237,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='9.9_2_4.html' class=Questions&gt;</v>
@@ -1276,7 +1276,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='9.9_2_5.html' class=Video&gt;</v>
@@ -1311,7 +1311,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='9.9_2_6.html' class=Questions&gt;</v>
@@ -1350,7 +1350,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f t="shared" si="2"/>
         <v>&lt;a href='9.9_2_7.html' class=Document&gt;</v>
@@ -1385,7 +1385,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f t="shared" ref="A18:A24" si="12">IF(I18&lt;&gt;"Lesson","&lt;a href='"&amp;H18&amp;".html' class="&amp;I18&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f t="shared" si="12"/>
         <v>&lt;a href='9.9_3_1.html' class=Video&gt;</v>
@@ -1453,7 +1453,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f t="shared" si="12"/>
         <v>&lt;a href='9.9_3_2.html' class=Questions&gt;</v>
@@ -1492,7 +1492,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f t="shared" si="12"/>
         <v>&lt;a href='9.9_3_3.html' class=Video&gt;</v>
@@ -1527,7 +1527,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f t="shared" si="12"/>
         <v>&lt;a href='9.9_3_4.html' class=Questions&gt;</v>
@@ -1566,7 +1566,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f t="shared" si="12"/>
         <v>&lt;a href='9.9_3_5.html' class=Video&gt;</v>
@@ -1601,7 +1601,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f t="shared" si="12"/>
         <v>&lt;a href='9.9_3_6.html' class=Questions&gt;</v>
@@ -1640,7 +1640,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f t="shared" ref="A25:A42" si="18">IF(I25&lt;&gt;"Lesson","&lt;a href='"&amp;H25&amp;".html' class="&amp;I25&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f t="shared" si="18"/>
         <v>&lt;a href='9.9_4_1.html' class=Video&gt;</v>
@@ -1708,7 +1708,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f t="shared" si="18"/>
         <v>&lt;a href='9.9_4_2.html' class=Questions&gt;</v>
@@ -1747,7 +1747,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f t="shared" si="18"/>
         <v>&lt;a href='9.9_4_3.html' class=Video&gt;</v>
@@ -1782,7 +1782,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f t="shared" si="18"/>
         <v>&lt;a href='9.9_4_4.html' class=Questions&gt;</v>
@@ -1821,7 +1821,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f t="shared" si="18"/>
         <v>&lt;a href='9.9_4_5.html' class=Video&gt;</v>
@@ -1856,7 +1856,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f t="shared" si="18"/>
         <v>&lt;a href='9.9_4_6.html' class=Questions&gt;</v>
@@ -1895,7 +1895,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f t="shared" ref="A32:A33" si="23">IF(I32&lt;&gt;"Lesson","&lt;a href='"&amp;H32&amp;".html' class="&amp;I32&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;a href='9.9_4_7.html' class=Video&gt;</v>
@@ -1930,7 +1930,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f t="shared" si="23"/>
         <v>&lt;a href='9.9_4_8.html' class=Questions&gt;</v>
@@ -1969,7 +1969,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f t="shared" ref="A34" si="28">IF(I34&lt;&gt;"Lesson","&lt;a href='"&amp;H34&amp;".html' class="&amp;I34&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f t="shared" si="18"/>
         <v>&lt;a href='9.9_5_1.html' class=Video&gt;</v>
@@ -2037,7 +2037,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f t="shared" si="18"/>
         <v>&lt;a href='9.9_5_2.html' class=Questions&gt;</v>
@@ -2076,7 +2076,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f t="shared" si="18"/>
         <v>&lt;a href='9.9_5_3.html' class=Video&gt;</v>
@@ -2111,7 +2111,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f t="shared" si="18"/>
         <v>&lt;a href='9.9_5_4.html' class=Questions&gt;</v>
@@ -2150,7 +2150,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f t="shared" si="18"/>
         <v>&lt;a href='9.9_5_5.html' class=Video&gt;</v>
@@ -2185,7 +2185,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f t="shared" si="18"/>
         <v>&lt;a href='9.9_5_6.html' class=Questions&gt;</v>
@@ -2224,7 +2224,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f t="shared" si="18"/>
         <v>&lt;a href='9.9_5_7.html' class=Video&gt;</v>
@@ -2259,7 +2259,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f t="shared" si="18"/>
         <v>&lt;a href='9.9_5_8.html' class=Questions&gt;</v>
@@ -2298,7 +2298,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f t="shared" ref="A43:A48" si="34">IF(I43&lt;&gt;"Lesson","&lt;a href='"&amp;H43&amp;".html' class="&amp;I43&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f t="shared" si="34"/>
         <v>&lt;a href='9.9_6_1.html' class=Video&gt;</v>
@@ -2366,7 +2366,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f t="shared" si="34"/>
         <v>&lt;a href='9.9_6_2.html' class=Questions&gt;</v>
@@ -2405,7 +2405,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f t="shared" si="34"/>
         <v>&lt;a href='9.9_6_3.html' class=Video&gt;</v>
@@ -2440,7 +2440,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f t="shared" ref="A47" si="41">IF(I47&lt;&gt;"Lesson","&lt;a href='"&amp;H47&amp;".html' class="&amp;I47&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;a href='9.9_6_4.html' class=Questions&gt;</v>
@@ -2479,7 +2479,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f t="shared" si="34"/>
         <v>&lt;a href='9.9_6_5.html' class=Document&gt;</v>
@@ -2514,7 +2514,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f t="shared" ref="A49:A60" si="43">IF(I49&lt;&gt;"Lesson","&lt;a href='"&amp;H49&amp;".html' class="&amp;I49&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f t="shared" si="43"/>
         <v>&lt;a href='9.9_7_1.html' class=Video&gt;</v>
@@ -2582,7 +2582,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f t="shared" si="43"/>
         <v>&lt;a href='9.9_7_2.html' class=Questions&gt;</v>
@@ -2621,7 +2621,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f t="shared" si="43"/>
         <v>&lt;a href='9.9_7_3.html' class=Video&gt;</v>
@@ -2656,7 +2656,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f t="shared" si="43"/>
         <v>&lt;a href='9.9_7_4.html' class=Questions&gt;</v>
@@ -2695,7 +2695,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f t="shared" si="43"/>
         <v>&lt;a href='9.9_7_5.html' class=Video&gt;</v>
@@ -2727,10 +2727,10 @@
         <v>9</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f t="shared" si="43"/>
         <v>&lt;a href='9.9_7_6.html' class=Questions&gt;</v>
@@ -2769,7 +2769,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f t="shared" si="43"/>
         <v>&lt;a href='9.9_7_7.html' class=Video&gt;</v>
@@ -2801,10 +2801,10 @@
         <v>9</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f t="shared" si="43"/>
         <v>&lt;a href='9.9_7_8.html' class=Questions&gt;</v>
@@ -2843,7 +2843,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f t="shared" si="43"/>
         <v>&lt;a href='9.9_7_9.html' class=Questions&gt;</v>
@@ -2882,7 +2882,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f t="shared" si="43"/>
         <v>&lt;a href='9.9_7_10.html' class=Document&gt;</v>
@@ -2917,7 +2917,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f t="shared" si="43"/>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f t="shared" ref="A61" si="60">IF(I61&lt;&gt;"Lesson","&lt;a href='"&amp;H61&amp;".html' class="&amp;I61&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;a href='9.9_8_1.html' class=Questions&gt;</v>
@@ -2989,7 +2989,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="str">
         <f t="shared" ref="A62:A64" si="61">IF(I62&lt;&gt;"Lesson","&lt;a href='"&amp;H62&amp;".html' class="&amp;I62&amp;"&gt;","&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;")</f>
         <v>&lt;/span&gt;&lt;span class=group&gt;&lt;span class=title&gt;</v>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="K62"/>
     </row>
-    <row r="63" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="str">
         <f t="shared" si="61"/>
         <v>&lt;a href='9.9_Notes 1.html' class=Document&gt;</v>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="K63"/>
     </row>
-    <row r="64" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="str">
         <f t="shared" si="61"/>
         <v>&lt;a href='9.9_Notes 2.html' class=Document&gt;</v>
@@ -3101,37 +3101,36 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1"/>
-    <hyperlink ref="J9" r:id="rId2"/>
-    <hyperlink ref="J64" r:id="rId3"/>
-    <hyperlink ref="J17" r:id="rId4"/>
-    <hyperlink ref="J5" r:id="rId5"/>
-    <hyperlink ref="J7" r:id="rId6"/>
-    <hyperlink ref="J11" r:id="rId7"/>
-    <hyperlink ref="J13" r:id="rId8"/>
-    <hyperlink ref="J48" r:id="rId9"/>
-    <hyperlink ref="J59" r:id="rId10"/>
-    <hyperlink ref="J63" r:id="rId11"/>
-    <hyperlink ref="J15" r:id="rId12"/>
-    <hyperlink ref="J19" r:id="rId13"/>
-    <hyperlink ref="J21" r:id="rId14"/>
-    <hyperlink ref="J23" r:id="rId15"/>
-    <hyperlink ref="J26" r:id="rId16"/>
-    <hyperlink ref="J28" r:id="rId17"/>
-    <hyperlink ref="J30" r:id="rId18"/>
-    <hyperlink ref="J32" r:id="rId19"/>
-    <hyperlink ref="J35" r:id="rId20"/>
-    <hyperlink ref="J37" r:id="rId21"/>
-    <hyperlink ref="J39" r:id="rId22"/>
-    <hyperlink ref="J41" r:id="rId23"/>
-    <hyperlink ref="J44" r:id="rId24"/>
-    <hyperlink ref="J46" r:id="rId25"/>
-    <hyperlink ref="J50" r:id="rId26"/>
-    <hyperlink ref="J52" r:id="rId27"/>
-    <hyperlink ref="J54" r:id="rId28"/>
-    <hyperlink ref="J56" r:id="rId29"/>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J64" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J17" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J48" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J59" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J63" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J19" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J21" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J26" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J28" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J30" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J32" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J35" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J37" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J39" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J41" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J44" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J46" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J50" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J52" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J56" r:id="rId28" xr:uid="{A94E398C-E0B8-42D1-8234-F46EB6AEB855}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId29"/>
 </worksheet>
 </file>